--- a/FileNames/15-ECMW QCD-002 Audit Evaluation Form.xlsx
+++ b/FileNames/15-ECMW QCD-002 Audit Evaluation Form.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Desktop\QMS_Manual\FileNames\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505"/>
   </bookViews>
@@ -523,6 +528,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -570,7 +578,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,7 +613,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1440,7 +1448,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;G</oddHeader>
-    <oddFooter>&amp;LECMW-QCD-002 C&amp;CPage &amp;P of &amp;N&amp;RRevision Date: 5/20/14</oddFooter>
+    <oddFooter>&amp;LECMW-QCD-002 C&amp;CPage &amp;P of &amp;N&amp;RRevision Date: 2015/6/10 C</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/FileNames/15-ECMW QCD-002 Audit Evaluation Form.xlsx
+++ b/FileNames/15-ECMW QCD-002 Audit Evaluation Form.xlsx
@@ -494,6 +494,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -503,21 +518,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,17 +831,17 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="29"/>
       <c r="K1" s="29"/>
       <c r="L1" s="29"/>
@@ -849,42 +849,42 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="42"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="2"/>
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="10"/>
       <c r="I4" s="11"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -897,10 +897,10 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -911,8 +911,8 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -959,7 +959,7 @@
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="28" t="s">
         <v>13</v>
       </c>
@@ -976,7 +976,7 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="24"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -991,7 +991,7 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="24"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1006,7 +1006,7 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="24"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1021,7 +1021,7 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="24"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1036,7 +1036,7 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="24"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1051,7 +1051,7 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="24"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1066,7 +1066,7 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="24"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1081,7 +1081,7 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="24"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1096,7 +1096,7 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="24"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1111,7 +1111,7 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="18"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1162,7 +1162,7 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="28" t="s">
         <v>13</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="24"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1186,7 +1186,7 @@
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="24"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1197,7 +1197,7 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="24"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1208,7 +1208,7 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="24"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1219,7 +1219,7 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="24"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1230,7 +1230,7 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="24"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1241,7 +1241,7 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="24"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1252,7 +1252,7 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="24"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1263,7 +1263,7 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="18"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1308,7 +1308,7 @@
       <c r="I34" s="26"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="28" t="s">
         <v>13</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="24"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1332,7 +1332,7 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="24"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1343,7 +1343,7 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="24"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1354,7 +1354,7 @@
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="24"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1365,7 +1365,7 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="24"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1376,7 +1376,7 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="24"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -1387,7 +1387,7 @@
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="24"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1398,7 +1398,7 @@
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="24"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -1409,7 +1409,7 @@
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="24"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1420,7 +1420,7 @@
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="18"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1432,17 +1432,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A23:A32"/>
     <mergeCell ref="A35:A45"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A10:A20"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/FileNames/15-ECMW QCD-002 Audit Evaluation Form.xlsx
+++ b/FileNames/15-ECMW QCD-002 Audit Evaluation Form.xlsx
@@ -824,7 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I43" sqref="I43:I45"/>
     </sheetView>
   </sheetViews>
@@ -1448,7 +1448,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;G</oddHeader>
-    <oddFooter>&amp;LECMW-QCD-002 C&amp;CPage &amp;P of &amp;N&amp;RRevision Date: 2015/6/10 C</oddFooter>
+    <oddFooter>&amp;LECMW-QCD-002 C&amp;RPage &amp;P&amp;CRevision Date: 2015/6/10 C</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/FileNames/15-ECMW QCD-002 Audit Evaluation Form.xlsx
+++ b/FileNames/15-ECMW QCD-002 Audit Evaluation Form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Desktop\QMS_Manual\FileNames\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Desktop\QMS_Manual\fileNames\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Auditor Name:</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Audit Evaluation Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -825,7 +828,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43:I45"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H33" s="32" t="s">
         <v>11</v>
@@ -1448,7 +1451,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;G</oddHeader>
-    <oddFooter>&amp;LECMW-QCD-002 C&amp;RPage &amp;P&amp;CRevision Date: 2015/6/10 C</oddFooter>
+    <oddFooter>&amp;LECMW-QCD-002 C&amp;RPage &amp;P&amp;CRevision Date: 2015/6/22 C</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/FileNames/15-ECMW QCD-002 Audit Evaluation Form.xlsx
+++ b/FileNames/15-ECMW QCD-002 Audit Evaluation Form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Desktop\QMS_Manual\fileNames\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Google Drive\QMS-Updated Names\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Auditor Name:</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Audit Evaluation Form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -828,7 +825,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="I43" sqref="I43:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,7 +1287,7 @@
         <v>9</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H33" s="32" t="s">
         <v>11</v>
@@ -1451,7 +1448,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;G</oddHeader>
-    <oddFooter>&amp;LECMW-QCD-002 C&amp;RPage &amp;P&amp;CRevision Date: 2015/6/22 C</oddFooter>
+    <oddFooter>&amp;LECMW-QCD-002 C&amp;CRevision Date: 5/20/14 &amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
